--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc202_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc202_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5260" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -367,10 +391,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -414,28 +438,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="3">
+      <c r="A10" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="3">
+      <c r="C10" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="3">
+      <c r="E10" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="3">
+      <c r="F10" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="3">
+      <c r="G10" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="3">
+      <c r="H10" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -460,28 +484,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="C12" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="3">
+      <c r="I12" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -569,10 +593,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="J15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -616,28 +640,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="3">
+      <c r="A17" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B17" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="3">
+      <c r="C17" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F17" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="3">
+      <c r="G17" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="3">
+      <c r="H17" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -662,28 +686,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="D19" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="3">
+      <c r="I19" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -800,10 +824,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -847,28 +871,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="3">
+      <c r="A25" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="3">
+      <c r="B25" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="3">
+      <c r="C25" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="3">
+      <c r="E25" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="3">
+      <c r="F25" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="3">
+      <c r="G25" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="3">
+      <c r="H25" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -893,28 +917,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="3">
+      <c r="B27" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="3">
+      <c r="C27" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="3">
+      <c r="D27" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="3">
+      <c r="E27" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="3">
+      <c r="F27" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="3">
+      <c r="G27" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="3">
+      <c r="H27" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="3">
+      <c r="I27" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1031,10 +1055,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="3" t="s">
+      <c r="J31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1078,28 +1102,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="3">
+      <c r="A33" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="3">
+      <c r="B33" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="3">
+      <c r="C33" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="3">
+      <c r="G33" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="H33" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1124,28 +1148,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="3">
+      <c r="B35" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="C35" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="3">
+      <c r="D35" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="3">
+      <c r="F35" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="3">
+      <c r="G35" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="3">
+      <c r="H35" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="3">
+      <c r="I35" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1262,10 +1286,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="3" t="s">
+      <c r="J39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1309,28 +1333,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="3">
+      <c r="A41" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="3">
+      <c r="B41" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="3">
+      <c r="C41" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="3">
+      <c r="F41" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="3">
+      <c r="G41" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="3">
+      <c r="H41" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1355,28 +1379,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="3">
+      <c r="B43" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="3">
+      <c r="C43" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="3">
+      <c r="D43" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="3">
+      <c r="E43" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="3">
+      <c r="F43" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="3">
+      <c r="G43" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="3">
+      <c r="H43" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="3">
+      <c r="I43" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1551,10 +1575,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="3" t="s">
+      <c r="J49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1598,28 +1622,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="3">
+      <c r="A51" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="3">
+      <c r="B51" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="3">
+      <c r="C51" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="3">
+      <c r="F51" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="3">
+      <c r="G51" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="3">
+      <c r="H51" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1644,28 +1668,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="3">
+      <c r="D53" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="3">
+      <c r="I53" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1840,10 +1864,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="3" t="s">
+      <c r="J59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1887,28 +1911,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="3">
+      <c r="A61" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="3">
+      <c r="B61" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="3">
+      <c r="C61" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="3">
+      <c r="F61" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="3">
+      <c r="G61" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="3">
+      <c r="H61" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1933,28 +1957,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="3">
+      <c r="B63" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="3">
+      <c r="C63" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="3">
+      <c r="D63" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="3">
+      <c r="E63" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="3">
+      <c r="F63" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="3">
+      <c r="G63" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="3">
+      <c r="H63" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="3">
+      <c r="I63" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2158,10 +2182,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="3" t="s">
+      <c r="J70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2205,28 +2229,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="3">
+      <c r="A72" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="3">
+      <c r="C72" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2251,28 +2275,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="3">
+      <c r="B74" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="3">
+      <c r="C74" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="3">
+      <c r="D74" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="3">
+      <c r="F74" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="3">
+      <c r="G74" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="3">
+      <c r="H74" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="3">
+      <c r="I74" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2476,10 +2500,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="3" t="s">
+      <c r="J81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2523,28 +2547,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="3">
+      <c r="A83" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="3">
+      <c r="B83" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="3">
+      <c r="C83" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="3">
+      <c r="E83" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="3">
+      <c r="F83" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="3">
+      <c r="G83" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="3">
+      <c r="H83" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2569,28 +2593,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="3">
+      <c r="C85" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="3">
+      <c r="D85" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="3">
+      <c r="I85" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2765,10 +2789,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="3" t="s">
+      <c r="J91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2812,28 +2836,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="3">
+      <c r="A93" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="3">
+      <c r="B93" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="3">
+      <c r="C93" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="3">
+      <c r="F93" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="3">
+      <c r="G93" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="3">
+      <c r="H93" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2858,28 +2882,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="3">
+      <c r="B95" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="3">
+      <c r="C95" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="3">
+      <c r="D95" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="3">
+      <c r="F95" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="3">
+      <c r="G95" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="3">
+      <c r="H95" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="3">
+      <c r="I95" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2996,10 +3020,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="3" t="s">
+      <c r="J99" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3043,28 +3067,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="3">
+      <c r="A101" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="3">
+      <c r="C101" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3089,28 +3113,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="3">
+      <c r="B103" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="3">
+      <c r="C103" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="3">
+      <c r="D103" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="3">
+      <c r="F103" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="3">
+      <c r="G103" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="3">
+      <c r="H103" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="3">
+      <c r="I103" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3314,10 +3338,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="3" t="s">
+      <c r="J110" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3361,28 +3385,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="3">
+      <c r="A112" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="3">
+      <c r="B112" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="3">
+      <c r="C112" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="3">
+      <c r="E112" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="3">
+      <c r="F112" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="3">
+      <c r="G112" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="3">
+      <c r="H112" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3407,28 +3431,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="3">
+      <c r="B114" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="3">
+      <c r="C114" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="3">
+      <c r="D114" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="3">
+      <c r="F114" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="3">
+      <c r="G114" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="3">
+      <c r="H114" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="3">
+      <c r="I114" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3603,10 +3627,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="3" t="s">
+      <c r="J120" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3650,28 +3674,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="3">
+      <c r="A122" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="3">
+      <c r="B122" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="3">
+      <c r="C122" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="3">
+      <c r="F122" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="3">
+      <c r="G122" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="3">
+      <c r="H122" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3696,28 +3720,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="3">
+      <c r="C124" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="3">
+      <c r="D124" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="3">
+      <c r="I124" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3834,10 +3858,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="3" t="s">
+      <c r="J128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3881,28 +3905,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="3">
+      <c r="A130" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="3">
+      <c r="C130" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3927,28 +3951,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="3">
+      <c r="B132" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="3">
+      <c r="C132" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="3">
+      <c r="D132" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="3">
+      <c r="G132" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="3">
+      <c r="H132" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="3">
+      <c r="I132" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4065,10 +4089,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="3" t="s">
+      <c r="J136" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4112,28 +4136,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="3">
+      <c r="A138" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="3">
+      <c r="C138" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4158,28 +4182,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="3">
+      <c r="B140" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="3">
+      <c r="C140" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="3">
+      <c r="D140" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="3">
+      <c r="E140" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="3">
+      <c r="F140" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="3">
+      <c r="G140" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="3">
+      <c r="H140" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="3">
+      <c r="I140" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4296,10 +4320,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="3" t="s">
+      <c r="J144" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4343,28 +4367,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="3">
+      <c r="A146" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="3">
+      <c r="B146" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="3">
+      <c r="C146" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="3">
+      <c r="F146" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="3">
+      <c r="G146" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="3">
+      <c r="H146" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4389,28 +4413,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="3">
+      <c r="C148" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="3">
+      <c r="D148" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="3">
+      <c r="I148" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4527,10 +4551,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="3" t="s">
+      <c r="J152" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4574,28 +4598,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="3">
+      <c r="A154" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="3">
+      <c r="C154" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4620,28 +4644,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="3">
+      <c r="B156" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="3">
+      <c r="C156" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="3">
+      <c r="D156" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="3">
+      <c r="E156" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="3">
+      <c r="F156" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="3">
+      <c r="G156" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="3">
+      <c r="H156" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="3">
+      <c r="I156" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4758,10 +4782,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="3" t="s">
+      <c r="J160" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4805,28 +4829,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="3">
+      <c r="A162" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="3">
+      <c r="B162" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="3">
+      <c r="C162" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="3">
+      <c r="E162" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="3">
+      <c r="F162" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="3">
+      <c r="G162" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="3">
+      <c r="H162" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4851,28 +4875,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="3">
+      <c r="B164" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="3">
+      <c r="C164" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="3">
+      <c r="D164" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="3">
+      <c r="E164" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="3">
+      <c r="F164" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="3">
+      <c r="G164" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="3">
+      <c r="H164" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="3">
+      <c r="I164" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4960,10 +4984,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="3" t="s">
+      <c r="J167" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5007,28 +5031,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="3">
+      <c r="A169" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="3">
+      <c r="B169" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="3">
+      <c r="C169" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="3">
+      <c r="E169" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="3">
+      <c r="F169" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="3">
+      <c r="G169" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="3">
+      <c r="H169" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5053,28 +5077,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="3">
+      <c r="B171" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="3">
+      <c r="C171" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="3">
+      <c r="D171" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="3">
+      <c r="E171" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="3">
+      <c r="F171" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="3">
+      <c r="G171" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="3">
+      <c r="H171" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="3">
+      <c r="I171" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5133,10 +5157,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="3" t="s">
+      <c r="J173" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5180,28 +5204,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="3">
+      <c r="A175" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="3">
+      <c r="B175" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="3">
+      <c r="C175" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="3">
+      <c r="E175" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="3">
+      <c r="F175" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="3">
+      <c r="G175" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="3">
+      <c r="H175" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5226,28 +5250,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="3">
+      <c r="B177" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="3">
+      <c r="C177" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="3">
+      <c r="D177" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="3">
+      <c r="E177" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="3">
+      <c r="F177" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="3">
+      <c r="G177" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="3">
+      <c r="H177" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="3">
+      <c r="I177" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5335,10 +5359,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="3" t="s">
+      <c r="J180" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5382,28 +5406,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="3">
+      <c r="A182" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="3">
+      <c r="B182" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="3">
+      <c r="C182" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="3">
+      <c r="E182" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="3">
+      <c r="F182" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="3">
+      <c r="G182" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="3">
+      <c r="H182" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5428,28 +5452,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="3">
+      <c r="B184" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="3">
+      <c r="C184" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="3">
+      <c r="D184" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="3">
+      <c r="E184" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="3">
+      <c r="F184" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="3">
+      <c r="G184" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="3">
+      <c r="H184" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="3">
+      <c r="I184" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5566,10 +5590,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="3" t="s">
+      <c r="J188" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5613,28 +5637,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="3">
+      <c r="A190" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="3">
+      <c r="B190" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="3">
+      <c r="C190" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="3">
+      <c r="E190" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="3">
+      <c r="F190" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="3">
+      <c r="G190" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="3">
+      <c r="H190" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5659,28 +5683,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="3">
+      <c r="B192" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="3">
+      <c r="C192" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="3">
+      <c r="D192" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="3">
+      <c r="E192" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="3">
+      <c r="F192" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="3">
+      <c r="G192" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="3">
+      <c r="H192" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="3">
+      <c r="I192" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5826,10 +5850,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="3" t="s">
+      <c r="J197" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5873,28 +5897,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="3">
+      <c r="A199" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="3">
+      <c r="B199" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="3">
+      <c r="C199" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="3">
+      <c r="E199" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="3">
+      <c r="F199" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="3">
+      <c r="G199" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="3">
+      <c r="H199" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5919,28 +5943,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="3">
+      <c r="B201" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="3">
+      <c r="C201" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="3">
+      <c r="D201" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="3">
+      <c r="E201" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="3">
+      <c r="F201" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="3">
+      <c r="G201" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="3">
+      <c r="H201" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="3">
+      <c r="I201" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6057,10 +6081,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="3" t="s">
+      <c r="J205" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6104,28 +6128,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="3">
+      <c r="A207" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="3">
+      <c r="B207" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="3">
+      <c r="C207" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="3">
+      <c r="E207" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="3">
+      <c r="F207" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="3">
+      <c r="G207" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="3">
+      <c r="H207" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6150,28 +6174,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="3">
+      <c r="B209" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="3">
+      <c r="C209" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="3">
+      <c r="D209" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="3">
+      <c r="E209" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="F209" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="3">
+      <c r="G209" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="3">
+      <c r="H209" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="3">
+      <c r="I209" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6259,10 +6283,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="3" t="s">
+      <c r="J212" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6306,28 +6330,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="3">
+      <c r="A214" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="3">
+      <c r="B214" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="3">
+      <c r="C214" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="3">
+      <c r="E214" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="3">
+      <c r="F214" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="3">
+      <c r="G214" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="3">
+      <c r="H214" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6352,28 +6376,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="3">
+      <c r="C216" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="3">
+      <c r="D216" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="3">
+      <c r="I216" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6432,10 +6456,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="3" t="s">
+      <c r="J218" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6479,28 +6503,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="3">
+      <c r="A220" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="3">
+      <c r="B220" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="3">
+      <c r="C220" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="3">
+      <c r="E220" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="3">
+      <c r="F220" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="3">
+      <c r="G220" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="3">
+      <c r="H220" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6525,28 +6549,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="3">
+      <c r="B222" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="3">
+      <c r="C222" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="3">
+      <c r="D222" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="3">
+      <c r="E222" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="3">
+      <c r="F222" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="3">
+      <c r="G222" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="3">
+      <c r="H222" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="3">
+      <c r="I222" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6692,10 +6716,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="3" t="s">
+      <c r="J227" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6739,28 +6763,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="3">
+      <c r="A229" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="3">
+      <c r="B229" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="3">
+      <c r="C229" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="3">
+      <c r="E229" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="3">
+      <c r="F229" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="3">
+      <c r="G229" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="3">
+      <c r="H229" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6785,28 +6809,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="3">
+      <c r="B231" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="3">
+      <c r="C231" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="3">
+      <c r="D231" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="3">
+      <c r="E231" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="3">
+      <c r="F231" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="3">
+      <c r="G231" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="3">
+      <c r="H231" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="3">
+      <c r="I231" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6894,10 +6918,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="3" t="s">
+      <c r="J234" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6941,28 +6965,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="3">
+      <c r="A236" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="3">
+      <c r="B236" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="3">
+      <c r="C236" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="3">
+      <c r="E236" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="3">
+      <c r="F236" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="3">
+      <c r="G236" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="3">
+      <c r="H236" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6987,28 +7011,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="3">
+      <c r="B238" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="3">
+      <c r="C238" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="3">
+      <c r="D238" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="3">
+      <c r="E238" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="3">
+      <c r="F238" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="3">
+      <c r="G238" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="3">
+      <c r="H238" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="3">
+      <c r="I238" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7183,10 +7207,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="3" t="s">
+      <c r="J244" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7230,28 +7254,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="3">
+      <c r="A246" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="3">
+      <c r="B246" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="3">
+      <c r="C246" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="3">
+      <c r="E246" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="3">
+      <c r="F246" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="3">
+      <c r="G246" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="3">
+      <c r="H246" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7276,28 +7300,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="3">
+      <c r="B248" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="3">
+      <c r="C248" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="3">
+      <c r="D248" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="3">
+      <c r="E248" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="3">
+      <c r="F248" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="3">
+      <c r="G248" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="3">
+      <c r="H248" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="3">
+      <c r="I248" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7385,10 +7409,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="3" t="s">
+      <c r="J251" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
